--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>3428.102984277417</v>
+        <v>0.063512200186</v>
       </c>
       <c r="R2">
-        <v>30852.92685849675</v>
+        <v>0.5716098016740001</v>
       </c>
       <c r="S2">
-        <v>0.5593340292941535</v>
+        <v>0.0002882642008281937</v>
       </c>
       <c r="T2">
-        <v>0.5593340292941537</v>
+        <v>0.0002882642008281939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>19.89222373321266</v>
+        <v>0.3625353992637777</v>
       </c>
       <c r="R3">
-        <v>179.030013598914</v>
+        <v>3.262818593374</v>
       </c>
       <c r="S3">
-        <v>0.003245642766086234</v>
+        <v>0.001645447281540394</v>
       </c>
       <c r="T3">
-        <v>0.003245642766086234</v>
+        <v>0.001645447281540394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>181.1482996179616</v>
+        <v>6.395365261696446</v>
       </c>
       <c r="R4">
-        <v>1630.334696561655</v>
+        <v>57.55828735526801</v>
       </c>
       <c r="S4">
-        <v>0.0295564073745165</v>
+        <v>0.02902678305535529</v>
       </c>
       <c r="T4">
-        <v>0.0295564073745165</v>
+        <v>0.0290267830553553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>1207.954068474626</v>
+        <v>1.227966826988</v>
       </c>
       <c r="R5">
-        <v>10871.58661627164</v>
+        <v>11.051701442892</v>
       </c>
       <c r="S5">
-        <v>0.1970914582849364</v>
+        <v>0.005573399677362401</v>
       </c>
       <c r="T5">
-        <v>0.1970914582849365</v>
+        <v>0.005573399677362402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
-        <v>7.009384694610222</v>
+        <v>7.009384694610221</v>
       </c>
       <c r="R6">
-        <v>63.084462251492</v>
+        <v>63.08446225149198</v>
       </c>
       <c r="S6">
-        <v>0.001143660911615085</v>
+        <v>0.03181364637615843</v>
       </c>
       <c r="T6">
-        <v>0.001143660911615086</v>
+        <v>0.03181364637615844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>63.83087863006557</v>
+        <v>123.6502020845716</v>
       </c>
       <c r="R7">
-        <v>574.4779076705901</v>
+        <v>1112.851818761144</v>
       </c>
       <c r="S7">
-        <v>0.01041473453431451</v>
+        <v>0.5612138546888299</v>
       </c>
       <c r="T7">
-        <v>0.01041473453431451</v>
+        <v>0.5612138546888299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>1153.326677335523</v>
+        <v>0.7599158595780002</v>
       </c>
       <c r="R8">
-        <v>10379.94009601971</v>
+        <v>6.839242736202001</v>
       </c>
       <c r="S8">
-        <v>0.1881783775123345</v>
+        <v>0.003449046597604861</v>
       </c>
       <c r="T8">
-        <v>0.1881783775123345</v>
+        <v>0.003449046597604861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>6.69239880139622</v>
+        <v>4.337692581144666</v>
       </c>
       <c r="R9">
-        <v>60.23158921256599</v>
+        <v>39.039233230302</v>
       </c>
       <c r="S9">
-        <v>0.00109194105439552</v>
+        <v>0.0196875794206493</v>
       </c>
       <c r="T9">
-        <v>0.001091941054395521</v>
+        <v>0.0196875794206493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>60.94425035116056</v>
+        <v>76.51977849806269</v>
       </c>
       <c r="R10">
-        <v>548.4982531604451</v>
+        <v>688.6780064825641</v>
       </c>
       <c r="S10">
-        <v>0.009943748267647641</v>
+        <v>0.3473019787016711</v>
       </c>
       <c r="T10">
-        <v>0.009943748267647641</v>
+        <v>0.3473019787016711</v>
       </c>
     </row>
   </sheetData>
